--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H2">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I2">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J2">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>285.847348886089</v>
+        <v>2390.545689101452</v>
       </c>
       <c r="R2">
-        <v>1143.389395544356</v>
+        <v>9562.182756405808</v>
       </c>
       <c r="S2">
-        <v>0.004419382614850545</v>
+        <v>0.02721911324159735</v>
       </c>
       <c r="T2">
-        <v>0.002639751606678615</v>
+        <v>0.01766339998150491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H3">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I3">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J3">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>206.2767732014239</v>
+        <v>1408.600571167668</v>
       </c>
       <c r="R3">
-        <v>1237.660639208544</v>
+        <v>8451.603427006008</v>
       </c>
       <c r="S3">
-        <v>0.003189170684584951</v>
+        <v>0.01603853824404538</v>
       </c>
       <c r="T3">
-        <v>0.002857396328499439</v>
+        <v>0.01561192204951927</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H4">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I4">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J4">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>146.820005771106</v>
+        <v>920.5258023879635</v>
       </c>
       <c r="R4">
-        <v>880.9200346266358</v>
+        <v>5523.154814327781</v>
       </c>
       <c r="S4">
-        <v>0.002269931078757888</v>
+        <v>0.0104812454207592</v>
       </c>
       <c r="T4">
-        <v>0.002033786639812188</v>
+        <v>0.01020245012362801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H5">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I5">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J5">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>243.000788462941</v>
+        <v>2040.471934808893</v>
       </c>
       <c r="R5">
-        <v>972.0031538517638</v>
+        <v>8161.887739235571</v>
       </c>
       <c r="S5">
-        <v>0.003756947420058298</v>
+        <v>0.02323312075275188</v>
       </c>
       <c r="T5">
-        <v>0.002244070915014305</v>
+        <v>0.01507675511071778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H6">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I6">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J6">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>211.433428181672</v>
+        <v>709.8759115931314</v>
       </c>
       <c r="R6">
-        <v>1268.600569090032</v>
+        <v>4259.255469558789</v>
       </c>
       <c r="S6">
-        <v>0.003268895864682991</v>
+        <v>0.008082754039475538</v>
       </c>
       <c r="T6">
-        <v>0.002928827574873994</v>
+        <v>0.007867757278726979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.736858</v>
+        <v>11.8604685</v>
       </c>
       <c r="H7">
-        <v>3.473716</v>
+        <v>23.720937</v>
       </c>
       <c r="I7">
-        <v>0.01904277991942104</v>
+        <v>0.09670409084924685</v>
       </c>
       <c r="J7">
-        <v>0.01461981882753793</v>
+        <v>0.07776173828620679</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>138.3159055253633</v>
+        <v>1023.113039329909</v>
       </c>
       <c r="R7">
-        <v>829.89543315218</v>
+        <v>6138.678235979453</v>
       </c>
       <c r="S7">
-        <v>0.002138452256486362</v>
+        <v>0.01164931915061749</v>
       </c>
       <c r="T7">
-        <v>0.001915985762659391</v>
+        <v>0.01133945374210984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>130.136079</v>
       </c>
       <c r="I8">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J8">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>7139.146891797456</v>
+        <v>8743.225240217562</v>
       </c>
       <c r="R8">
-        <v>42834.88135078474</v>
+        <v>52459.35144130537</v>
       </c>
       <c r="S8">
-        <v>0.1103757714788077</v>
+        <v>0.09955167934887955</v>
       </c>
       <c r="T8">
-        <v>0.09889320935479622</v>
+        <v>0.09690366006206759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>130.136079</v>
       </c>
       <c r="I9">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J9">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>5151.841323663303</v>
       </c>
       <c r="R9">
-        <v>46366.57191296972</v>
+        <v>46366.57191296973</v>
       </c>
       <c r="S9">
-        <v>0.0796507578922459</v>
+        <v>0.0586596411985921</v>
       </c>
       <c r="T9">
-        <v>0.1070468496388055</v>
+        <v>0.08564899106549127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>130.136079</v>
       </c>
       <c r="I10">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J10">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>3666.885811392201</v>
+        <v>3366.747795870469</v>
       </c>
       <c r="R10">
-        <v>33001.97230252981</v>
+        <v>30300.73016283423</v>
       </c>
       <c r="S10">
-        <v>0.05669239707367975</v>
+        <v>0.03833429744910745</v>
       </c>
       <c r="T10">
-        <v>0.07619189905788021</v>
+        <v>0.0559719396953845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>130.136079</v>
       </c>
       <c r="I11">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J11">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>6069.037653908298</v>
+        <v>7462.859130327859</v>
       </c>
       <c r="R11">
-        <v>36414.22592344979</v>
+        <v>44777.15478196715</v>
       </c>
       <c r="S11">
-        <v>0.09383119906857726</v>
+        <v>0.08497323799355422</v>
       </c>
       <c r="T11">
-        <v>0.08406979438673279</v>
+        <v>0.08271299713632826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>130.136079</v>
       </c>
       <c r="I12">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J12">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>5280.630754517812</v>
+        <v>2596.313057708773</v>
       </c>
       <c r="R12">
-        <v>47525.6767906603</v>
+        <v>23366.81751937896</v>
       </c>
       <c r="S12">
-        <v>0.08164192476474934</v>
+        <v>0.02956201148992717</v>
       </c>
       <c r="T12">
-        <v>0.1097228836960709</v>
+        <v>0.04316351764591926</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>130.136079</v>
       </c>
       <c r="I13">
-        <v>0.4756007134671515</v>
+        <v>0.3536872990129849</v>
       </c>
       <c r="J13">
-        <v>0.5477033522332176</v>
+        <v>0.4266107918414492</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>3454.492654437922</v>
+        <v>3741.952220301335</v>
       </c>
       <c r="R13">
-        <v>31090.4338899413</v>
+        <v>33677.56998271201</v>
       </c>
       <c r="S13">
-        <v>0.05340866318909153</v>
+        <v>0.04260643153292444</v>
       </c>
       <c r="T13">
-        <v>0.07177871609893204</v>
+        <v>0.06220968623625838</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H14">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I14">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J14">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>739.6710923579948</v>
+        <v>752.4672285998762</v>
       </c>
       <c r="R14">
-        <v>4438.026554147968</v>
+        <v>4514.803371599257</v>
       </c>
       <c r="S14">
-        <v>0.01143578759436771</v>
+        <v>0.008567705189332503</v>
       </c>
       <c r="T14">
-        <v>0.01024610493367129</v>
+        <v>0.008339808997791995</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H15">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I15">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J15">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>533.7707932452505</v>
+        <v>443.3823510769786</v>
       </c>
       <c r="R15">
-        <v>4803.937139207254</v>
+        <v>3990.441159692808</v>
       </c>
       <c r="S15">
-        <v>0.008252437439687742</v>
+        <v>0.005048418224470832</v>
       </c>
       <c r="T15">
-        <v>0.01109088542453031</v>
+        <v>0.007371199662451116</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H16">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I16">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J16">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>379.917863404771</v>
+        <v>289.7520438682368</v>
       </c>
       <c r="R16">
-        <v>3419.260770642938</v>
+        <v>2607.768394814131</v>
       </c>
       <c r="S16">
-        <v>0.005873772862141522</v>
+        <v>0.003299160409269682</v>
       </c>
       <c r="T16">
-        <v>0.007894072787565669</v>
+        <v>0.004817106866721571</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H17">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I17">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J17">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>628.7994600847768</v>
+        <v>642.2752214364035</v>
       </c>
       <c r="R17">
-        <v>3772.796760508661</v>
+        <v>3853.651328618421</v>
       </c>
       <c r="S17">
-        <v>0.009721641333932657</v>
+        <v>0.007313042400423897</v>
       </c>
       <c r="T17">
-        <v>0.008710283958408692</v>
+        <v>0.00711851954105825</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H18">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I18">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J18">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>547.1143790333185</v>
+        <v>223.4462040535488</v>
       </c>
       <c r="R18">
-        <v>4924.029411299867</v>
+        <v>2011.015836481939</v>
       </c>
       <c r="S18">
-        <v>0.008458737799937208</v>
+        <v>0.00254419213122201</v>
       </c>
       <c r="T18">
-        <v>0.01136814334684578</v>
+        <v>0.003714777053923699</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.494369666666667</v>
+        <v>3.733295666666667</v>
       </c>
       <c r="H19">
-        <v>13.483109</v>
+        <v>11.199887</v>
       </c>
       <c r="I19">
-        <v>0.0492759295456825</v>
+        <v>0.03043935096800206</v>
       </c>
       <c r="J19">
-        <v>0.05674632319163286</v>
+        <v>0.03671535748057042</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>357.9122819543828</v>
+        <v>322.0432208255949</v>
       </c>
       <c r="R19">
-        <v>3221.210537589445</v>
+        <v>2898.388987430354</v>
       </c>
       <c r="S19">
-        <v>0.005533552515615664</v>
+        <v>0.003666832613283135</v>
       </c>
       <c r="T19">
-        <v>0.007436832740611121</v>
+        <v>0.005353945358623793</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H20">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I20">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J20">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>5642.461691463903</v>
+        <v>10286.23804745051</v>
       </c>
       <c r="R20">
-        <v>22569.84676585561</v>
+        <v>41144.95218980204</v>
       </c>
       <c r="S20">
-        <v>0.08723606218979811</v>
+        <v>0.1171206555557703</v>
       </c>
       <c r="T20">
-        <v>0.05210717319473884</v>
+        <v>0.07600354085070228</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H21">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I21">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J21">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>4071.784451258436</v>
+        <v>6061.043239985731</v>
       </c>
       <c r="R21">
-        <v>24430.70670755062</v>
+        <v>36366.25943991439</v>
       </c>
       <c r="S21">
-        <v>0.06295238869779152</v>
+        <v>0.06901195114718778</v>
       </c>
       <c r="T21">
-        <v>0.05640335439078239</v>
+        <v>0.06717627164028719</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H22">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I22">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J22">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>2898.142177397297</v>
+        <v>3960.914687952295</v>
       </c>
       <c r="R22">
-        <v>17388.85306438378</v>
+        <v>23765.48812771377</v>
       </c>
       <c r="S22">
-        <v>0.04480712941388427</v>
+        <v>0.04509957116619841</v>
       </c>
       <c r="T22">
-        <v>0.04014577447882649</v>
+        <v>0.04389994766354993</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H23">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I23">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J23">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>4796.695317415956</v>
+        <v>8779.911693917618</v>
       </c>
       <c r="R23">
-        <v>19186.78126966382</v>
+        <v>35119.64677567047</v>
       </c>
       <c r="S23">
-        <v>0.07415997376617521</v>
+        <v>0.09996939683583116</v>
       </c>
       <c r="T23">
-        <v>0.04429666470666636</v>
+        <v>0.06487351099750416</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H24">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I24">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J24">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>4173.573844427658</v>
+        <v>3054.512885525526</v>
       </c>
       <c r="R24">
-        <v>25041.44306656595</v>
+        <v>18327.07731315316</v>
       </c>
       <c r="S24">
-        <v>0.06452611773988774</v>
+        <v>0.03477914373612676</v>
       </c>
       <c r="T24">
-        <v>0.05781336596798459</v>
+        <v>0.03385403786152551</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.28457450000001</v>
+        <v>51.0342065</v>
       </c>
       <c r="H25">
-        <v>68.56914900000001</v>
+        <v>102.068413</v>
       </c>
       <c r="I25">
-        <v>0.3758934851522086</v>
+        <v>0.4161063740268965</v>
       </c>
       <c r="J25">
-        <v>0.2885867858910901</v>
+        <v>0.3345996500473176</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>2730.276146650608</v>
+        <v>4402.335550404707</v>
       </c>
       <c r="R25">
-        <v>16381.65687990365</v>
+        <v>26414.01330242824</v>
       </c>
       <c r="S25">
-        <v>0.04221181334467169</v>
+        <v>0.05012565558578211</v>
       </c>
       <c r="T25">
-        <v>0.03782045315209143</v>
+        <v>0.0487923410337485</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H26">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I26">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J26">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>698.1873066830434</v>
+        <v>1629.136271445689</v>
       </c>
       <c r="R26">
-        <v>4189.12384009826</v>
+        <v>9774.817628674131</v>
       </c>
       <c r="S26">
-        <v>0.0107944217677316</v>
+        <v>0.01854959094094603</v>
       </c>
       <c r="T26">
-        <v>0.009671461385392996</v>
+        <v>0.01805618214166343</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H27">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I27">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J27">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>503.8347400246958</v>
+        <v>959.9491417086961</v>
       </c>
       <c r="R27">
-        <v>4534.512660222263</v>
+        <v>8639.542275378264</v>
       </c>
       <c r="S27">
-        <v>0.007789606933560215</v>
+        <v>0.01093012549957346</v>
       </c>
       <c r="T27">
-        <v>0.01046886312482149</v>
+        <v>0.0159590853631088</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H28">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I28">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J28">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>358.6105129047989</v>
+        <v>627.3303958626971</v>
       </c>
       <c r="R28">
-        <v>3227.494616143191</v>
+        <v>5645.973562764273</v>
       </c>
       <c r="S28">
-        <v>0.005544347612143388</v>
+        <v>0.007142878365692758</v>
       </c>
       <c r="T28">
-        <v>0.007451340839534714</v>
+        <v>0.01042932266247468</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H29">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I29">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J29">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>593.5338098462014</v>
+        <v>1390.56402687439</v>
       </c>
       <c r="R29">
-        <v>3561.202859077209</v>
+        <v>8343.384161246342</v>
       </c>
       <c r="S29">
-        <v>0.009176411853326672</v>
+        <v>0.01583317143434834</v>
       </c>
       <c r="T29">
-        <v>0.008221775543477007</v>
+        <v>0.01541201788270785</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H30">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I30">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J30">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>516.4299628461879</v>
+        <v>483.774311896393</v>
       </c>
       <c r="R30">
-        <v>4647.869665615691</v>
+        <v>4353.968807067537</v>
       </c>
       <c r="S30">
-        <v>0.007984337124287479</v>
+        <v>0.005508327173547248</v>
       </c>
       <c r="T30">
-        <v>0.01073057128678421</v>
+        <v>0.008042713102791265</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.242306999999999</v>
+        <v>8.082807000000001</v>
       </c>
       <c r="H31">
-        <v>12.726921</v>
+        <v>24.248421</v>
       </c>
       <c r="I31">
-        <v>0.046512333507759</v>
+        <v>0.06590300395342127</v>
       </c>
       <c r="J31">
-        <v>0.05356375686797306</v>
+        <v>0.07949093105621252</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>337.8390946304116</v>
+        <v>697.242713142998</v>
       </c>
       <c r="R31">
-        <v>3040.551851673705</v>
+        <v>6275.184418286981</v>
       </c>
       <c r="S31">
-        <v>0.005223208216709648</v>
+        <v>0.007938910539313447</v>
       </c>
       <c r="T31">
-        <v>0.007019744687962638</v>
+        <v>0.0115916099034665</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H32">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I32">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J32">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>505.4850424136673</v>
+        <v>918.6001647380176</v>
       </c>
       <c r="R32">
-        <v>3032.910254482003</v>
+        <v>5511.600988428106</v>
       </c>
       <c r="S32">
-        <v>0.007815121662717186</v>
+        <v>0.01045931982046839</v>
       </c>
       <c r="T32">
-        <v>0.007002102475656845</v>
+        <v>0.01018110773210701</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H33">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I33">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J33">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>364.7744988960105</v>
+        <v>541.2742047239626</v>
       </c>
       <c r="R33">
-        <v>3282.970490064095</v>
+        <v>4871.467842515664</v>
       </c>
       <c r="S33">
-        <v>0.005639646773160265</v>
+        <v>0.006163029612989688</v>
       </c>
       <c r="T33">
-        <v>0.007579418402511313</v>
+        <v>0.008998644680969871</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H34">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I34">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J34">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>259.6326925318359</v>
+        <v>353.7247405787998</v>
       </c>
       <c r="R34">
-        <v>2336.694232786524</v>
+        <v>3183.522665209198</v>
       </c>
       <c r="S34">
-        <v>0.004014087281527601</v>
+        <v>0.004027563168553351</v>
       </c>
       <c r="T34">
-        <v>0.005394743365079244</v>
+        <v>0.005880648343403216</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H35">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I35">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J35">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>429.7162955731793</v>
+        <v>784.0794944870029</v>
       </c>
       <c r="R35">
-        <v>2578.297773439076</v>
+        <v>4704.476966922017</v>
       </c>
       <c r="S35">
-        <v>0.006643688435014578</v>
+        <v>0.008927647209653651</v>
       </c>
       <c r="T35">
-        <v>0.005952535257414559</v>
+        <v>0.008690176760620165</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H36">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I36">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J36">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>373.8933938990986</v>
+        <v>272.7796135860958</v>
       </c>
       <c r="R36">
-        <v>3365.040545091887</v>
+        <v>2455.016522274861</v>
       </c>
       <c r="S36">
-        <v>0.005780630715115083</v>
+        <v>0.003105909761963143</v>
       </c>
       <c r="T36">
-        <v>0.007768894149325175</v>
+        <v>0.004534941435321771</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.071414666666666</v>
+        <v>4.557548666666666</v>
       </c>
       <c r="H37">
-        <v>9.214243999999999</v>
+        <v>13.672646</v>
       </c>
       <c r="I37">
-        <v>0.03367475840777729</v>
+        <v>0.03715988118944856</v>
       </c>
       <c r="J37">
-        <v>0.03877996298854841</v>
+        <v>0.04482153128824346</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>244.5942620892911</v>
+        <v>393.1453018274369</v>
       </c>
       <c r="R37">
-        <v>2201.34835880362</v>
+        <v>3538.307716446931</v>
       </c>
       <c r="S37">
-        <v>0.003781583540242575</v>
+        <v>0.004476411615820338</v>
       </c>
       <c r="T37">
-        <v>0.005082269338561275</v>
+        <v>0.006536012335821437</v>
       </c>
     </row>
   </sheetData>
